--- a/2018_New South_MORINAGA - Claim list_updated by 20181217.xlsx
+++ b/2018_New South_MORINAGA - Claim list_updated by 20181217.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chinhnguyen2\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E946F09-E676-2E44-9382-56996DBA6641}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" state="hidden" r:id="rId1"/>
     <sheet name="Claim list" sheetId="1" r:id="rId2"/>
-    <sheet name="Statistic" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="Exercise" sheetId="4" r:id="rId3"/>
+    <sheet name="Statistic" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Claim list'!$A$5:$P$247</definedName>
     <definedName name="Vidu">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="38" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,12 +34,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="F5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2582" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2599" uniqueCount="271">
   <si>
     <t>Lemay Co., Ltd</t>
   </si>
@@ -878,12 +878,21 @@
   </si>
   <si>
     <t>Bé kèm tiêu chảy</t>
+  </si>
+  <si>
+    <t>Number of Complain</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Number of Customer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-809]dd\ mmm\ yyyy;@"/>
   </numFmts>
@@ -1012,7 +1021,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -1170,6 +1179,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1188,7 +1206,737 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Exercise!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Number of Complain</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Exercise!$D$2:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1. Chất lượng</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2. Tình trạng sức khỏe</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3. Hiện tượng khác thường</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4. CTKM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5. Khác</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Exercise!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Exercise!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Number of Customer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Exercise!$Q$2:$Q$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Cảm thấy không hài lòng về sản phẩm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cảm thấy mất lòng tin về sản phẩm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Không bao giờ mua nữa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Exercise!$R$2:$R$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1361,7 +2109,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-62B8-45C9-99A9-697DACE61ECD}"/>
             </c:ext>
@@ -1377,11 +2125,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="433369624"/>
-        <c:axId val="433374720"/>
+        <c:axId val="453718496"/>
+        <c:axId val="453711440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="433369624"/>
+        <c:axId val="453718496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1424,7 +2172,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433374720"/>
+        <c:crossAx val="453711440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1432,7 +2180,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="433374720"/>
+        <c:axId val="453711440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1483,7 +2231,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433369624"/>
+        <c:crossAx val="453718496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1560,7 +2308,12 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
+  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -1570,16 +2323,1362 @@
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
   </c:extLst>
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1599,7 +3698,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1621,7 +3720,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Admin" refreshedDate="42663.261631365742" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="88" xr:uid="{00000000-000A-0000-FFFF-FFFF0A000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Admin" refreshedDate="42663.261631365742" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="88">
   <cacheSource type="worksheet">
     <worksheetSource ref="A5:N1860" sheet="Claim list"/>
   </cacheSource>
@@ -3030,7 +5129,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="38" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A4:E9" firstHeaderRow="1" firstDataRow="5" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="13">
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
@@ -3466,33 +5565,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView topLeftCell="E13" workbookViewId="0">
       <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="51" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.83203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="24.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="37.83203125" style="1" customWidth="1"/>
-    <col min="17" max="18" width="8.83203125" style="1"/>
+    <col min="7" max="7" width="7.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="24.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="37.85546875" style="1" customWidth="1"/>
+    <col min="17" max="18" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -3521,7 +5620,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -3550,7 +5649,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>19</v>
       </c>
@@ -3573,7 +5672,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>20</v>
       </c>
@@ -3590,7 +5689,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>21</v>
       </c>
@@ -3607,7 +5706,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>22</v>
       </c>
@@ -3619,7 +5718,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>46</v>
       </c>
@@ -3630,7 +5729,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -3641,7 +5740,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>24</v>
       </c>
@@ -3652,7 +5751,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>25</v>
       </c>
@@ -3663,7 +5762,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>26</v>
       </c>
@@ -3674,7 +5773,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>27</v>
       </c>
@@ -3685,7 +5784,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>28</v>
       </c>
@@ -3696,7 +5795,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>29</v>
       </c>
@@ -3707,7 +5806,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>47</v>
       </c>
@@ -3718,7 +5817,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>30</v>
       </c>
@@ -3729,7 +5828,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>31</v>
       </c>
@@ -3740,7 +5839,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>32</v>
       </c>
@@ -3751,7 +5850,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>33</v>
       </c>
@@ -3762,7 +5861,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>48</v>
       </c>
@@ -3773,7 +5872,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>34</v>
       </c>
@@ -3784,7 +5883,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>49</v>
       </c>
@@ -3795,7 +5894,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>35</v>
       </c>
@@ -3806,7 +5905,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>36</v>
       </c>
@@ -3817,7 +5916,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>37</v>
       </c>
@@ -3828,7 +5927,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>38</v>
       </c>
@@ -3836,7 +5935,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>39</v>
       </c>
@@ -3844,7 +5943,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>40</v>
       </c>
@@ -3852,7 +5951,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>41</v>
       </c>
@@ -3860,7 +5959,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>42</v>
       </c>
@@ -3868,7 +5967,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>43</v>
       </c>
@@ -3876,12 +5975,12 @@
         <v>238</v>
       </c>
     </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>45</v>
       </c>
@@ -3893,45 +5992,45 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O247"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="110" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="17" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="17" customWidth="1"/>
-    <col min="7" max="7" width="32.83203125" style="17" customWidth="1"/>
-    <col min="8" max="8" width="57.1640625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="41.6640625" style="17" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" style="17" customWidth="1"/>
+    <col min="8" max="8" width="57.140625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="41.7109375" style="17" customWidth="1"/>
     <col min="10" max="10" width="13" style="18" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" style="17" customWidth="1"/>
-    <col min="12" max="12" width="17.5" style="17" customWidth="1"/>
-    <col min="13" max="13" width="22.1640625" style="13" customWidth="1"/>
-    <col min="14" max="14" width="35.5" style="17" customWidth="1"/>
-    <col min="15" max="15" width="33.1640625" style="25" customWidth="1"/>
-    <col min="16" max="16" width="10.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.83203125" style="17"/>
+    <col min="11" max="11" width="12.7109375" style="17" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" style="17" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" style="13" customWidth="1"/>
+    <col min="14" max="14" width="35.42578125" style="17" customWidth="1"/>
+    <col min="15" max="15" width="33.140625" style="25" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.85546875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
     </row>
-    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="56" t="s">
         <v>114</v>
       </c>
@@ -3943,7 +6042,7 @@
       <c r="G3" s="56"/>
       <c r="H3" s="56"/>
     </row>
-    <row r="5" spans="1:15" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -3990,7 +6089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>1</v>
       </c>
@@ -4039,7 +6138,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>2</v>
       </c>
@@ -4088,7 +6187,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>3</v>
       </c>
@@ -4137,7 +6236,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>4</v>
       </c>
@@ -4186,7 +6285,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>5</v>
       </c>
@@ -4235,7 +6334,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>6</v>
       </c>
@@ -4284,7 +6383,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>7</v>
       </c>
@@ -4333,7 +6432,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <v>8</v>
       </c>
@@ -4382,7 +6481,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>9</v>
       </c>
@@ -4431,7 +6530,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
         <v>10</v>
       </c>
@@ -4480,7 +6579,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
         <v>11</v>
       </c>
@@ -4529,7 +6628,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
         <v>12</v>
       </c>
@@ -4578,7 +6677,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
         <v>13</v>
       </c>
@@ -4627,7 +6726,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
         <v>14</v>
       </c>
@@ -4676,7 +6775,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
         <v>15</v>
       </c>
@@ -4725,7 +6824,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="20">
         <v>16</v>
       </c>
@@ -4774,7 +6873,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
         <v>17</v>
       </c>
@@ -4823,7 +6922,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
         <v>18</v>
       </c>
@@ -4872,7 +6971,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
         <v>19</v>
       </c>
@@ -4921,7 +7020,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
         <v>20</v>
       </c>
@@ -4970,7 +7069,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="20">
         <v>21</v>
       </c>
@@ -5019,7 +7118,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="20">
         <v>22</v>
       </c>
@@ -5068,7 +7167,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="20">
         <v>23</v>
       </c>
@@ -5117,7 +7216,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="20">
         <v>24</v>
       </c>
@@ -5166,7 +7265,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="20">
         <v>25</v>
       </c>
@@ -5215,7 +7314,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="20">
         <v>26</v>
       </c>
@@ -5264,7 +7363,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="20">
         <v>27</v>
       </c>
@@ -5313,7 +7412,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="20">
         <v>28</v>
       </c>
@@ -5362,7 +7461,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="20">
         <v>29</v>
       </c>
@@ -5411,7 +7510,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="20">
         <v>30</v>
       </c>
@@ -5460,7 +7559,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="37" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" s="37" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" s="20">
         <v>31</v>
       </c>
@@ -5509,7 +7608,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="20">
         <v>32</v>
       </c>
@@ -5558,7 +7657,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="20">
         <v>33</v>
       </c>
@@ -5605,7 +7704,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="20">
         <v>34</v>
       </c>
@@ -5654,7 +7753,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="20">
         <v>35</v>
       </c>
@@ -5703,7 +7802,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="20">
         <v>36</v>
       </c>
@@ -5752,7 +7851,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="20">
         <v>37</v>
       </c>
@@ -5801,7 +7900,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="20">
         <v>38</v>
       </c>
@@ -5850,7 +7949,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="20">
         <v>39</v>
       </c>
@@ -5899,7 +7998,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A45" s="20">
         <v>40</v>
       </c>
@@ -5948,7 +8047,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="20">
         <v>41</v>
       </c>
@@ -5993,7 +8092,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="20">
         <v>42</v>
       </c>
@@ -6042,7 +8141,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="20">
         <v>43</v>
       </c>
@@ -6091,7 +8190,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="20">
         <v>44</v>
       </c>
@@ -6140,7 +8239,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="20">
         <v>45</v>
       </c>
@@ -6189,7 +8288,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A51" s="20">
         <v>46</v>
       </c>
@@ -6238,7 +8337,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52" s="20">
         <v>47</v>
       </c>
@@ -6287,7 +8386,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A53" s="20">
         <v>48</v>
       </c>
@@ -6336,7 +8435,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:15" s="37" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" s="37" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A54" s="20">
         <v>49</v>
       </c>
@@ -6385,7 +8484,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A55" s="20">
         <v>50</v>
       </c>
@@ -6434,7 +8533,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A56" s="20">
         <v>51</v>
       </c>
@@ -6483,7 +8582,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A57" s="20">
         <v>52</v>
       </c>
@@ -6532,7 +8631,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A58" s="20">
         <v>53</v>
       </c>
@@ -6581,7 +8680,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A59" s="20">
         <v>54</v>
       </c>
@@ -6630,7 +8729,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A60" s="20">
         <v>55</v>
       </c>
@@ -6679,7 +8778,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A61" s="20">
         <v>56</v>
       </c>
@@ -6728,7 +8827,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A62" s="20">
         <v>57</v>
       </c>
@@ -6777,7 +8876,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A63" s="20">
         <v>58</v>
       </c>
@@ -6826,7 +8925,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A64" s="20">
         <v>59</v>
       </c>
@@ -6875,7 +8974,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A65" s="20">
         <v>60</v>
       </c>
@@ -6924,7 +9023,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="20">
         <v>61</v>
       </c>
@@ -6973,7 +9072,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A67" s="20">
         <v>62</v>
       </c>
@@ -7022,7 +9121,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A68" s="20">
         <v>63</v>
       </c>
@@ -7071,7 +9170,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="20">
         <v>64</v>
       </c>
@@ -7120,7 +9219,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="20">
         <v>65</v>
       </c>
@@ -7169,7 +9268,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="71" spans="1:15" s="37" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" s="37" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A71" s="20">
         <v>66</v>
       </c>
@@ -7218,7 +9317,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="20">
         <v>67</v>
       </c>
@@ -7267,7 +9366,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A73" s="20">
         <v>68</v>
       </c>
@@ -7316,7 +9415,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A74" s="20">
         <v>69</v>
       </c>
@@ -7365,7 +9464,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A75" s="20">
         <v>70</v>
       </c>
@@ -7414,7 +9513,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A76" s="20">
         <v>71</v>
       </c>
@@ -7463,7 +9562,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A77" s="20">
         <v>72</v>
       </c>
@@ -7512,7 +9611,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="20">
         <v>73</v>
       </c>
@@ -7561,7 +9660,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="20">
         <v>74</v>
       </c>
@@ -7610,7 +9709,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="20">
         <v>75</v>
       </c>
@@ -7659,7 +9758,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="20">
         <v>76</v>
       </c>
@@ -7708,7 +9807,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="20">
         <v>77</v>
       </c>
@@ -7751,7 +9850,7 @@
       <c r="N82" s="19"/>
       <c r="O82" s="26"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="20">
         <v>78</v>
       </c>
@@ -7800,7 +9899,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="84" spans="1:15" s="37" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" s="37" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A84" s="20">
         <v>79</v>
       </c>
@@ -7849,7 +9948,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="20">
         <v>80</v>
       </c>
@@ -7898,7 +9997,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A86" s="20">
         <v>81</v>
       </c>
@@ -7947,7 +10046,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="20">
         <v>82</v>
       </c>
@@ -7996,7 +10095,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="20">
         <v>83</v>
       </c>
@@ -8045,7 +10144,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="20">
         <v>84</v>
       </c>
@@ -8090,7 +10189,7 @@
       <c r="N89" s="19"/>
       <c r="O89" s="26"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="20">
         <v>85</v>
       </c>
@@ -8133,7 +10232,7 @@
       <c r="N90" s="19"/>
       <c r="O90" s="26"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="20">
         <v>86</v>
       </c>
@@ -8178,7 +10277,7 @@
       <c r="N91" s="19"/>
       <c r="O91" s="26"/>
     </row>
-    <row r="92" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="20">
         <v>87</v>
       </c>
@@ -8225,7 +10324,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="93" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="20">
         <v>88</v>
       </c>
@@ -8274,7 +10373,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="94" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="20">
         <v>89</v>
       </c>
@@ -8319,7 +10418,7 @@
       <c r="N94" s="27"/>
       <c r="O94" s="28"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="20">
         <v>90</v>
       </c>
@@ -8362,7 +10461,7 @@
       <c r="N95" s="19"/>
       <c r="O95" s="26"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="20">
         <v>91</v>
       </c>
@@ -8407,7 +10506,7 @@
       <c r="N96" s="19"/>
       <c r="O96" s="26"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="20">
         <v>92</v>
       </c>
@@ -8450,7 +10549,7 @@
       <c r="N97" s="19"/>
       <c r="O97" s="26"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="20">
         <v>93</v>
       </c>
@@ -8495,7 +10594,7 @@
       <c r="N98" s="19"/>
       <c r="O98" s="26"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="20">
         <v>94</v>
       </c>
@@ -8540,7 +10639,7 @@
       <c r="N99" s="19"/>
       <c r="O99" s="26"/>
     </row>
-    <row r="100" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="20">
         <v>95</v>
       </c>
@@ -8585,7 +10684,7 @@
       <c r="N100" s="27"/>
       <c r="O100" s="28"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="20">
         <v>96</v>
       </c>
@@ -8628,7 +10727,7 @@
       <c r="N101" s="19"/>
       <c r="O101" s="26"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="20">
         <v>97</v>
       </c>
@@ -8677,7 +10776,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="20">
         <v>98</v>
       </c>
@@ -8722,7 +10821,7 @@
       <c r="N103" s="19"/>
       <c r="O103" s="26"/>
     </row>
-    <row r="104" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="20">
         <v>99</v>
       </c>
@@ -8769,7 +10868,7 @@
       </c>
       <c r="O104" s="36"/>
     </row>
-    <row r="105" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="20">
         <v>100</v>
       </c>
@@ -8814,7 +10913,7 @@
       <c r="N105" s="27"/>
       <c r="O105" s="28"/>
     </row>
-    <row r="106" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="20">
         <v>101</v>
       </c>
@@ -8863,7 +10962,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="107" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="20">
         <v>102</v>
       </c>
@@ -8912,7 +11011,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="108" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="20">
         <v>103</v>
       </c>
@@ -8960,7 +11059,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="109" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="20">
         <v>104</v>
       </c>
@@ -9009,7 +11108,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:15" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A110" s="20">
         <v>105</v>
       </c>
@@ -9054,7 +11153,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="111" spans="1:15" s="47" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="20">
         <v>106</v>
       </c>
@@ -9103,7 +11202,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="112" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="20">
         <v>107</v>
       </c>
@@ -9152,7 +11251,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="113" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="20">
         <v>108</v>
       </c>
@@ -9201,7 +11300,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="114" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="20">
         <v>109</v>
       </c>
@@ -9250,7 +11349,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="115" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="20">
         <v>110</v>
       </c>
@@ -9299,7 +11398,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="20">
         <v>111</v>
       </c>
@@ -9348,7 +11447,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="20">
         <v>112</v>
       </c>
@@ -9397,7 +11496,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="20">
         <v>113</v>
       </c>
@@ -9446,7 +11545,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="20">
         <v>114</v>
       </c>
@@ -9495,7 +11594,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A120" s="20">
         <v>115</v>
       </c>
@@ -9544,7 +11643,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="121" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="20">
         <v>116</v>
       </c>
@@ -9593,7 +11692,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="122" spans="1:15" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A122" s="20">
         <v>117</v>
       </c>
@@ -9642,7 +11741,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="123" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="20">
         <v>118</v>
       </c>
@@ -9689,7 +11788,7 @@
       </c>
       <c r="O123" s="36"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="20">
         <v>119</v>
       </c>
@@ -9738,7 +11837,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="20">
         <v>120</v>
       </c>
@@ -9781,7 +11880,7 @@
       <c r="N125" s="19"/>
       <c r="O125" s="26"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="20">
         <v>121</v>
       </c>
@@ -9824,7 +11923,7 @@
       <c r="N126" s="19"/>
       <c r="O126" s="26"/>
     </row>
-    <row r="127" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="20">
         <v>122</v>
       </c>
@@ -9871,7 +11970,7 @@
       </c>
       <c r="O127" s="36"/>
     </row>
-    <row r="128" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="20">
         <v>123</v>
       </c>
@@ -9918,7 +12017,7 @@
       </c>
       <c r="O128" s="28"/>
     </row>
-    <row r="129" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="20">
         <v>124</v>
       </c>
@@ -9959,7 +12058,7 @@
       <c r="N129" s="27"/>
       <c r="O129" s="28"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="20">
         <v>125</v>
       </c>
@@ -10006,7 +12105,7 @@
       </c>
       <c r="O130" s="26"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="20">
         <v>126</v>
       </c>
@@ -10051,7 +12150,7 @@
       <c r="N131" s="19"/>
       <c r="O131" s="26"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="20">
         <v>127</v>
       </c>
@@ -10098,7 +12197,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="133" spans="1:15" s="37" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" s="37" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A133" s="20">
         <v>128</v>
       </c>
@@ -10145,7 +12244,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="20">
         <v>129</v>
       </c>
@@ -10194,7 +12293,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="20">
         <v>130</v>
       </c>
@@ -10239,7 +12338,7 @@
       <c r="N135" s="19"/>
       <c r="O135" s="26"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="20">
         <v>131</v>
       </c>
@@ -10284,7 +12383,7 @@
       <c r="N136" s="19"/>
       <c r="O136" s="26"/>
     </row>
-    <row r="137" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A137" s="20">
         <v>132</v>
       </c>
@@ -10329,7 +12428,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="20">
         <v>133</v>
       </c>
@@ -10372,7 +12471,7 @@
       <c r="N138" s="19"/>
       <c r="O138" s="26"/>
     </row>
-    <row r="139" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="20">
         <v>134</v>
       </c>
@@ -10419,7 +12518,7 @@
       </c>
       <c r="O139" s="36"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="20">
         <v>135</v>
       </c>
@@ -10462,7 +12561,7 @@
       <c r="N140" s="19"/>
       <c r="O140" s="26"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="20">
         <v>136</v>
       </c>
@@ -10505,7 +12604,7 @@
       <c r="N141" s="19"/>
       <c r="O141" s="26"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="20">
         <v>137</v>
       </c>
@@ -10548,7 +12647,7 @@
       <c r="N142" s="19"/>
       <c r="O142" s="26"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="20">
         <v>138</v>
       </c>
@@ -10593,7 +12692,7 @@
       <c r="N143" s="19"/>
       <c r="O143" s="26"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="20">
         <v>139</v>
       </c>
@@ -10636,7 +12735,7 @@
       <c r="N144" s="19"/>
       <c r="O144" s="26"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="20">
         <v>140</v>
       </c>
@@ -10685,7 +12784,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A146" s="20">
         <v>141</v>
       </c>
@@ -10734,7 +12833,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="147" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15" s="37" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A147" s="20">
         <v>142</v>
       </c>
@@ -10781,7 +12880,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="20">
         <v>143</v>
       </c>
@@ -10828,7 +12927,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A149" s="20">
         <v>144</v>
       </c>
@@ -10877,7 +12976,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="20">
         <v>145</v>
       </c>
@@ -10926,7 +13025,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="20">
         <v>146</v>
       </c>
@@ -10975,7 +13074,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="20">
         <v>147</v>
       </c>
@@ -11024,7 +13123,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A153" s="20">
         <v>148</v>
       </c>
@@ -11073,7 +13172,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="20">
         <v>149</v>
       </c>
@@ -11122,7 +13221,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="20">
         <v>150</v>
       </c>
@@ -11171,7 +13270,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="20">
         <v>151</v>
       </c>
@@ -11220,7 +13319,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="20">
         <v>152</v>
       </c>
@@ -11269,7 +13368,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="20">
         <v>153</v>
       </c>
@@ -11318,7 +13417,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="20">
         <v>154</v>
       </c>
@@ -11367,7 +13466,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="20">
         <v>155</v>
       </c>
@@ -11416,7 +13515,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="20">
         <v>156</v>
       </c>
@@ -11465,7 +13564,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="20">
         <v>157</v>
       </c>
@@ -11514,7 +13613,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="20">
         <v>158</v>
       </c>
@@ -11563,7 +13662,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="20">
         <v>159</v>
       </c>
@@ -11612,7 +13711,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="20">
         <v>160</v>
       </c>
@@ -11661,7 +13760,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="20">
         <v>161</v>
       </c>
@@ -11710,7 +13809,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="20">
         <v>162</v>
       </c>
@@ -11759,7 +13858,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="20">
         <v>163</v>
       </c>
@@ -11808,7 +13907,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="20">
         <v>164</v>
       </c>
@@ -11857,7 +13956,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="20">
         <v>165</v>
       </c>
@@ -11906,7 +14005,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="20">
         <v>166</v>
       </c>
@@ -11955,7 +14054,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="20">
         <v>167</v>
       </c>
@@ -12004,7 +14103,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="173" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="20">
         <v>168</v>
       </c>
@@ -12053,7 +14152,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A174" s="20">
         <v>169</v>
       </c>
@@ -12102,7 +14201,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="20">
         <v>170</v>
       </c>
@@ -12141,7 +14240,7 @@
       <c r="N175" s="19"/>
       <c r="O175" s="26"/>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="20">
         <v>171</v>
       </c>
@@ -12188,7 +14287,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="20">
         <v>172</v>
       </c>
@@ -12237,7 +14336,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="20">
         <v>173</v>
       </c>
@@ -12286,7 +14385,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A179" s="20">
         <v>174</v>
       </c>
@@ -12333,7 +14432,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="180" spans="1:15" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A180" s="20">
         <v>175</v>
       </c>
@@ -12382,7 +14481,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="181" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="20">
         <v>176</v>
       </c>
@@ -12431,7 +14530,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="182" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="20">
         <v>177</v>
       </c>
@@ -12480,7 +14579,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="183" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="20">
         <v>178</v>
       </c>
@@ -12529,7 +14628,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="184" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="20">
         <v>179</v>
       </c>
@@ -12578,7 +14677,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="185" spans="1:15" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A185" s="20">
         <v>180</v>
       </c>
@@ -12627,7 +14726,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="186" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="20">
         <v>181</v>
       </c>
@@ -12676,7 +14775,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="187" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="20">
         <v>182</v>
       </c>
@@ -12725,7 +14824,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="188" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="20">
         <v>183</v>
       </c>
@@ -12774,7 +14873,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="189" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="20">
         <v>184</v>
       </c>
@@ -12823,7 +14922,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="190" spans="1:15" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A190" s="20">
         <v>185</v>
       </c>
@@ -12872,7 +14971,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="191" spans="1:15" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A191" s="20">
         <v>186</v>
       </c>
@@ -12921,7 +15020,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="192" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="20">
         <v>187</v>
       </c>
@@ -12970,7 +15069,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="193" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="20">
         <v>188</v>
       </c>
@@ -13019,7 +15118,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="194" spans="1:15" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A194" s="20">
         <v>189</v>
       </c>
@@ -13068,7 +15167,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="195" spans="1:15" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:15" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A195" s="20">
         <v>190</v>
       </c>
@@ -13117,7 +15216,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="196" spans="1:15" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:15" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A196" s="20">
         <v>191</v>
       </c>
@@ -13166,7 +15265,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="197" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="20">
         <v>192</v>
       </c>
@@ -13215,7 +15314,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" s="20">
         <v>193</v>
       </c>
@@ -13264,7 +15363,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" s="20">
         <v>194</v>
       </c>
@@ -13313,7 +15412,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="200" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A200" s="20">
         <v>195</v>
       </c>
@@ -13362,7 +15461,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="20">
         <v>196</v>
       </c>
@@ -13411,7 +15510,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="202" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A202" s="20">
         <v>197</v>
       </c>
@@ -13460,7 +15559,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" s="20">
         <v>198</v>
       </c>
@@ -13509,7 +15608,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="204" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="20">
         <v>199</v>
       </c>
@@ -13558,7 +15657,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" s="20">
         <v>200</v>
       </c>
@@ -13607,7 +15706,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" s="20">
         <v>201</v>
       </c>
@@ -13656,7 +15755,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="207" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="20">
         <v>202</v>
       </c>
@@ -13705,7 +15804,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" s="20">
         <v>203</v>
       </c>
@@ -13754,7 +15853,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" s="20">
         <v>204</v>
       </c>
@@ -13803,7 +15902,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" s="20">
         <v>205</v>
       </c>
@@ -13852,7 +15951,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" s="20">
         <v>206</v>
       </c>
@@ -13901,7 +16000,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" s="20">
         <v>207</v>
       </c>
@@ -13950,7 +16049,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" s="20">
         <v>208</v>
       </c>
@@ -13999,7 +16098,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" s="20">
         <v>209</v>
       </c>
@@ -14048,7 +16147,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" s="20">
         <v>210</v>
       </c>
@@ -14097,7 +16196,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" s="20">
         <v>211</v>
       </c>
@@ -14146,7 +16245,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" s="20">
         <v>212</v>
       </c>
@@ -14195,7 +16294,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" s="20">
         <v>213</v>
       </c>
@@ -14240,7 +16339,7 @@
       <c r="N218" s="19"/>
       <c r="O218" s="26"/>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" s="20">
         <v>214</v>
       </c>
@@ -14285,7 +16384,7 @@
       <c r="N219" s="19"/>
       <c r="O219" s="26"/>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" s="20">
         <v>215</v>
       </c>
@@ -14330,7 +16429,7 @@
       <c r="N220" s="19"/>
       <c r="O220" s="26"/>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" s="20">
         <v>216</v>
       </c>
@@ -14375,7 +16474,7 @@
       <c r="N221" s="19"/>
       <c r="O221" s="26"/>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" s="20">
         <v>217</v>
       </c>
@@ -14424,7 +16523,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" s="20">
         <v>218</v>
       </c>
@@ -14473,7 +16572,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" s="20">
         <v>219</v>
       </c>
@@ -14522,7 +16621,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" s="20">
         <v>220</v>
       </c>
@@ -14571,7 +16670,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" s="20">
         <v>221</v>
       </c>
@@ -14620,7 +16719,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" s="20">
         <v>222</v>
       </c>
@@ -14669,7 +16768,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" s="20">
         <v>223</v>
       </c>
@@ -14718,7 +16817,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" s="20">
         <v>224</v>
       </c>
@@ -14767,7 +16866,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" s="20">
         <v>225</v>
       </c>
@@ -14816,7 +16915,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" s="20">
         <v>226</v>
       </c>
@@ -14865,7 +16964,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" s="20">
         <v>227</v>
       </c>
@@ -14914,7 +17013,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" s="20">
         <v>228</v>
       </c>
@@ -14963,7 +17062,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" s="20">
         <v>229</v>
       </c>
@@ -15012,7 +17111,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" s="20">
         <v>230</v>
       </c>
@@ -15061,7 +17160,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" s="20">
         <v>231</v>
       </c>
@@ -15110,7 +17209,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" s="20"/>
       <c r="B237" s="21"/>
       <c r="C237" s="7"/>
@@ -15133,7 +17232,7 @@
       <c r="N237" s="19"/>
       <c r="O237" s="26"/>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" s="20"/>
       <c r="B238" s="21"/>
       <c r="C238" s="7"/>
@@ -15156,7 +17255,7 @@
       <c r="N238" s="19"/>
       <c r="O238" s="26"/>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" s="20"/>
       <c r="B239" s="21"/>
       <c r="C239" s="7"/>
@@ -15179,7 +17278,7 @@
       <c r="N239" s="19"/>
       <c r="O239" s="26"/>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" s="20"/>
       <c r="B240" s="21"/>
       <c r="C240" s="7"/>
@@ -15202,7 +17301,7 @@
       <c r="N240" s="19"/>
       <c r="O240" s="26"/>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" s="20"/>
       <c r="B241" s="21"/>
       <c r="C241" s="7"/>
@@ -15225,7 +17324,7 @@
       <c r="N241" s="19"/>
       <c r="O241" s="26"/>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" s="20"/>
       <c r="B242" s="21"/>
       <c r="C242" s="7"/>
@@ -15248,7 +17347,7 @@
       <c r="N242" s="19"/>
       <c r="O242" s="26"/>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" s="20"/>
       <c r="B243" s="21"/>
       <c r="C243" s="7"/>
@@ -15271,7 +17370,7 @@
       <c r="N243" s="19"/>
       <c r="O243" s="26"/>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" s="20"/>
       <c r="B244" s="21"/>
       <c r="C244" s="7"/>
@@ -15294,7 +17393,7 @@
       <c r="N244" s="19"/>
       <c r="O244" s="26"/>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" s="20"/>
       <c r="B245" s="21"/>
       <c r="C245" s="7"/>
@@ -15317,7 +17416,7 @@
       <c r="N245" s="19"/>
       <c r="O245" s="26"/>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" s="20"/>
       <c r="B246" s="21"/>
       <c r="C246" s="7"/>
@@ -15340,7 +17439,7 @@
       <c r="N246" s="19"/>
       <c r="O246" s="26"/>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" s="20"/>
       <c r="B247" s="21"/>
       <c r="C247" s="7"/>
@@ -15364,25 +17463,25 @@
       <c r="O247" s="26"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:P247" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A5:P247"/>
   <mergeCells count="1">
     <mergeCell ref="A3:H3"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Vidu" sqref="O1:O2 O4 O6:O54 O57:O1048576" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4 H248:H1048576" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Vidu" sqref="O1:O2 O4 O6:O54 O57:O1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4 H248:H1048576">
       <formula1>$F$1:$F$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I248:I1048576" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I248:I1048576">
       <formula1>$P$1:$P$4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L248:L1048576" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L248:L1048576">
       <formula1>$N$1:$N$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J248:J1048576" xr:uid="{00000000-0002-0000-0100-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J248:J1048576">
       <formula1>$I$1:$I$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K248:K1048576" xr:uid="{00000000-0002-0000-0100-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K248:K1048576">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -15392,79 +17491,79 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="13">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Data!$C$1:$C$3</xm:f>
           </x14:formula1>
           <xm:sqref>C4 C1:C2 C248:C1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Data!$P$1:$P$4</xm:f>
           </x14:formula1>
           <xm:sqref>I1:I4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Data!$H$1:$H$3</xm:f>
           </x14:formula1>
           <xm:sqref>J1:J4 J203:J247 J6:J199</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000009000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Data!$L$1:$L$4</xm:f>
           </x14:formula1>
           <xm:sqref>K1:K4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000A000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Data!$N$1:$N$7</xm:f>
           </x14:formula1>
           <xm:sqref>L1:L4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000B000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Data!$A$1:$A$2</xm:f>
           </x14:formula1>
           <xm:sqref>B2 B4 B6:B1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000C000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Data!$F$1:$F$24</xm:f>
           </x14:formula1>
           <xm:sqref>H1:H2 H181:H247 H6:H178</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000D000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Data!$F$1:$F$32</xm:f>
           </x14:formula1>
           <xm:sqref>H179:H180</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000E000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Data!$L$1:$L$5</xm:f>
           </x14:formula1>
           <xm:sqref>J200:J202 K6:K247</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000F000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Data!$N$1:$N$35</xm:f>
           </x14:formula1>
           <xm:sqref>L242:L247 L6:L240</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000010000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Data!$C$1:$C$33</xm:f>
           </x14:formula1>
           <xm:sqref>C6:C247</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000011000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Data!$P$1:$P$3</xm:f>
           </x14:formula1>
           <xm:sqref>I6:I247</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000012000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Data!$E$1:$E$5</xm:f>
           </x14:formula1>
@@ -15477,23 +17576,270 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="21">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21">
+        <f>COUNTIF('Claim list'!$E$6:$E$236,A2)</f>
+        <v>39</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="21">
+        <f>COUNTIF('Claim list'!$G$6:$G$236,D2)</f>
+        <v>6</v>
+      </c>
+      <c r="Q2" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="R2" s="21">
+        <f>COUNTIF('Claim list'!$I$6:$I$236,Q2)</f>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="21">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21">
+        <f>COUNTIF('Claim list'!$E$6:$E$236,A3)</f>
+        <v>5</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="21">
+        <f>COUNTIF('Claim list'!$G$6:$G$236,D3)</f>
+        <v>94</v>
+      </c>
+      <c r="Q3" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="R3" s="21">
+        <f>COUNTIF('Claim list'!$I$6:$I$236,Q3)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="21">
+        <v>3</v>
+      </c>
+      <c r="B4" s="21">
+        <f>COUNTIF('Claim list'!$E$6:$E$236,A4)</f>
+        <v>15</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="21">
+        <f>COUNTIF('Claim list'!$G$6:$G$236,D4)</f>
+        <v>75</v>
+      </c>
+      <c r="Q4" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="R4" s="21">
+        <f>COUNTIF('Claim list'!$I$6:$I$236,Q4)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="21">
+        <v>4</v>
+      </c>
+      <c r="B5" s="21">
+        <f>COUNTIF('Claim list'!$E$6:$E$236,A5)</f>
+        <v>7</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="21">
+        <f>COUNTIF('Claim list'!$G$6:$G$236,D5)</f>
+        <v>47</v>
+      </c>
+      <c r="Q5" s="59" t="s">
+        <v>269</v>
+      </c>
+      <c r="R5" s="21">
+        <f>SUM(R2:R4)</f>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="21">
+        <v>5</v>
+      </c>
+      <c r="B6" s="21">
+        <f>COUNTIF('Claim list'!$E$6:$E$236,A6)</f>
+        <v>20</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="21">
+        <f>COUNTIF('Claim list'!$G$6:$G$236,D6)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="21">
+        <v>6</v>
+      </c>
+      <c r="B7" s="21">
+        <f>COUNTIF('Claim list'!$E$6:$E$236,A7)</f>
+        <v>17</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>269</v>
+      </c>
+      <c r="E7" s="21">
+        <f>SUM(E2:E6)</f>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="21">
+        <v>7</v>
+      </c>
+      <c r="B8" s="21">
+        <f>COUNTIF('Claim list'!$E$6:$E$236,A8)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="21">
+        <v>8</v>
+      </c>
+      <c r="B9" s="21">
+        <f>COUNTIF('Claim list'!$E$6:$E$236,A9)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="21">
+        <v>9</v>
+      </c>
+      <c r="B10" s="21">
+        <f>COUNTIF('Claim list'!$E$6:$E$236,A10)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="21">
+        <v>10</v>
+      </c>
+      <c r="B11" s="21">
+        <f>COUNTIF('Claim list'!$E$6:$E$236,A11)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="21">
+        <v>11</v>
+      </c>
+      <c r="B12" s="21">
+        <f>COUNTIF('Claim list'!$E$6:$E$236,A12)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="21">
+        <v>12</v>
+      </c>
+      <c r="B13" s="21">
+        <f>COUNTIF('Claim list'!$E$6:$E$236,A13)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="59" t="s">
+        <v>269</v>
+      </c>
+      <c r="B14" s="21">
+        <f>SUM(B2:B13)</f>
+        <v>231</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Data!$E$1:$E$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Data!$P$1:$P$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>Q2:Q4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -15501,7 +17847,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -15509,7 +17855,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -15526,17 +17872,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
